--- a/biology/Zoologie/Cheilosia_fraterna/Cheilosia_fraterna.xlsx
+++ b/biology/Zoologie/Cheilosia_fraterna/Cheilosia_fraterna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheilosia fraterna est une espèce de syrphes paléarctiques.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve du sud du Fennoscandia jusqu'aux Pyrénées et de la Grande-Bretagne à l'est en passant par l'Europe centrale jusqu'à la Russie européenne et dans une grande partie de la Sibérie[1],[2]. Son habitat est la forêt de feuillus de Quercus et Fagus le long des ruisseaux et des rivières. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve du sud du Fennoscandia jusqu'aux Pyrénées et de la Grande-Bretagne à l'est en passant par l'Europe centrale jusqu'à la Russie européenne et dans une grande partie de la Sibérie,. Son habitat est la forêt de feuillus de Quercus et Fagus le long des ruisseaux et des rivières. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheilosia fraterna vole d'avril à juin et à des altitudes plus élevées de juillet à septembre. Ces insectes butinent Cirsium palustre et des espèces du genre Carduus.
 </t>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cheilosia fraterna (Meigen, 1830)[3].
-L'espèce a été initialement classée dans le genre Syrphus sous le protonyme Syrphus fraternus Meigen, 1830[3].
-Cheilosia fraterna a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cheilosia fraterna (Meigen, 1830).
+L'espèce a été initialement classée dans le genre Syrphus sous le protonyme Syrphus fraternus Meigen, 1830.
+Cheilosia fraterna a pour synonymes :
 Cheilosia rufitibia Egger, 1860
 Chilosia chloris Verrall, 1870
 Eristalis dimidiata Zetterstedt, 1849
